--- a/WatchIT Acceptance QA Testing doc.xlsx
+++ b/WatchIT Acceptance QA Testing doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diend\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB878D-63DD-4AA8-944B-FD920A9A79C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A569C3-519A-4196-800E-67A35F672447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="4140" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,18 +40,6 @@
     <t>Q/A technical support lead</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>ian.tyler@temple.edu</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Pass (P)  </t>
   </si>
   <si>
@@ -193,6 +181,9 @@
   <si>
     <t xml:space="preserve">Shortly after the watcher is triggered the user will get an email notifying them that someone has triggered the watcher including image. The user will also be able to check the log and verify the event. </t>
   </si>
+  <si>
+    <t>philip.lapinski@temple.edu</t>
+  </si>
 </sst>
 </file>
 
@@ -206,13 +197,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -233,6 +217,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="6">
@@ -381,12 +371,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -444,17 +437,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1613,7 +1610,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1628,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1643,11 +1640,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="3">
         <f>COUNTIF(D6:D11,"P")</f>
@@ -1657,13 +1654,13 @@
     </row>
     <row r="3" spans="1:5" ht="31.9" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(D6:D11,"F")</f>
@@ -1673,7 +1670,7 @@
     </row>
     <row r="4" spans="1:5" ht="31.9" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1682,29 +1679,29 @@
     </row>
     <row r="5" spans="1:5" ht="31.9" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
         <f>COUNTA(D7:D11)/5</f>
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.9" customHeight="1">
       <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1714,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -1727,10 +1724,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1740,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -1753,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1766,10 +1763,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
